--- a/20220218_MCM_2022/Notes/Table0_TreeCrownArea.xlsx
+++ b/20220218_MCM_2022/Notes/Table0_TreeCrownArea.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jasonying\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\Birdy-Mathematical-Modelling-Group\20220218_MCM_2022\Notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D9AF1BA-FD22-456C-9141-5E1A4BF99D3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{521BF3E7-4892-4CE8-A3F7-CD4240E8CC4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="23" yWindow="30" windowWidth="14384" windowHeight="7485" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>d</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -63,7 +63,63 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>not important</t>
+    <t>northwest oregon</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>southwest oregon</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>incense-cedar</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ponderosa</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>sugar pine</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>true firs</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>western hemlock</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>bigleaft maple</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>california  black oak</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>canyon live pal</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>oregon white oak</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>pacific madrone</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>red alder</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tanoak</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>golden chinkapin</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -401,8 +457,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -437,128 +493,140 @@
         <v>32.4</v>
       </c>
       <c r="D2" s="1">
-        <f>C2/2</f>
+        <f t="shared" ref="D2:D8" si="0">C2/2</f>
         <v>16.2</v>
       </c>
       <c r="E2" s="1">
         <v>56.4</v>
       </c>
       <c r="F2" s="1">
-        <f>3.1415*D2*SQRT(D2*D2+E2*E2)</f>
+        <f t="shared" ref="F2:F8" si="1">3.1415*D2*SQRT(D2*D2+E2*E2)</f>
         <v>2986.3851417114952</v>
       </c>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7" ht="15" x14ac:dyDescent="0.4">
       <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
+      <c r="B3" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="C3" s="1">
         <v>24.3</v>
       </c>
       <c r="D3" s="1">
-        <f>C3/2</f>
+        <f t="shared" si="0"/>
         <v>12.15</v>
       </c>
       <c r="E3" s="1">
         <v>45.2</v>
       </c>
       <c r="F3" s="1">
-        <f>3.1415*D3*SQRT(D3*D3+E3*E3)</f>
+        <f t="shared" si="1"/>
         <v>1786.4920133326093</v>
       </c>
       <c r="G3" s="1"/>
     </row>
     <row r="4" spans="1:7" ht="15" x14ac:dyDescent="0.4">
       <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
+      <c r="B4" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="C4" s="1">
         <v>17.7</v>
       </c>
       <c r="D4" s="1">
-        <f>C4/2</f>
+        <f t="shared" si="0"/>
         <v>8.85</v>
       </c>
       <c r="E4" s="1">
         <v>33.6</v>
       </c>
       <c r="F4" s="1">
-        <f>3.1415*D4*SQRT(D4*D4+E4*E4)</f>
+        <f t="shared" si="1"/>
         <v>966.01704059083056</v>
       </c>
       <c r="G4" s="1"/>
     </row>
     <row r="5" spans="1:7" ht="15" x14ac:dyDescent="0.4">
       <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
+      <c r="B5" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="C5" s="1">
         <v>17.399999999999999</v>
       </c>
       <c r="D5" s="1">
-        <f>C5/2</f>
+        <f t="shared" si="0"/>
         <v>8.6999999999999993</v>
       </c>
       <c r="E5" s="1">
         <v>38.200000000000003</v>
       </c>
       <c r="F5" s="1">
-        <f>3.1415*D5*SQRT(D5*D5+E5*E5)</f>
+        <f t="shared" si="1"/>
         <v>1070.7808703963431</v>
       </c>
       <c r="G5" s="1"/>
     </row>
     <row r="6" spans="1:7" ht="15" x14ac:dyDescent="0.4">
       <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
+      <c r="B6" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="C6" s="1">
         <v>23.5</v>
       </c>
       <c r="D6" s="1">
-        <f>C6/2</f>
+        <f t="shared" si="0"/>
         <v>11.75</v>
       </c>
       <c r="E6" s="1">
         <v>45.7</v>
       </c>
       <c r="F6" s="1">
-        <f>3.1415*D6*SQRT(D6*D6+E6*E6)</f>
+        <f t="shared" si="1"/>
         <v>1741.7723843960375</v>
       </c>
       <c r="G6" s="1"/>
     </row>
     <row r="7" spans="1:7" ht="15" x14ac:dyDescent="0.4">
       <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
+      <c r="B7" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="C7" s="1">
         <v>19.3</v>
       </c>
       <c r="D7" s="1">
-        <f>C7/2</f>
+        <f t="shared" si="0"/>
         <v>9.65</v>
       </c>
       <c r="E7" s="1">
         <v>41.8</v>
       </c>
       <c r="F7" s="1">
-        <f>3.1415*D7*SQRT(D7*D7+E7*E7)</f>
+        <f t="shared" si="1"/>
         <v>1300.5170943490218</v>
       </c>
       <c r="G7" s="1"/>
     </row>
     <row r="8" spans="1:7" ht="15" x14ac:dyDescent="0.4">
       <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
+      <c r="B8" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="C8" s="1">
         <v>25.6</v>
       </c>
       <c r="D8" s="1">
-        <f>C8/2</f>
+        <f t="shared" si="0"/>
         <v>12.8</v>
       </c>
       <c r="E8" s="1">
         <v>55</v>
       </c>
       <c r="F8" s="1">
-        <f>3.1415*D8*SQRT(D8*D8+E8*E8)</f>
+        <f t="shared" si="1"/>
         <v>2270.7190227439614</v>
       </c>
       <c r="G8" s="1">
@@ -579,152 +647,168 @@
       <c r="A10" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="1"/>
+      <c r="B10" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="C10" s="1">
         <v>24</v>
       </c>
       <c r="D10" s="1">
-        <f>C10/2</f>
+        <f t="shared" ref="D10:D17" si="2">C10/2</f>
         <v>12</v>
       </c>
       <c r="E10" s="1">
         <v>32.4</v>
       </c>
       <c r="F10" s="1">
-        <f>3.1415*D10*SQRT(D10*D10+E10*E10)</f>
+        <f t="shared" ref="F10:F17" si="3">3.1415*D10*SQRT(D10*D10+E10*E10)</f>
         <v>1302.4972691591488</v>
       </c>
       <c r="G10" s="1"/>
     </row>
     <row r="11" spans="1:7" ht="15" x14ac:dyDescent="0.4">
       <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
+      <c r="B11" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="C11" s="1">
         <v>18.5</v>
       </c>
       <c r="D11" s="1">
-        <f>C11/2</f>
+        <f t="shared" si="2"/>
         <v>9.25</v>
       </c>
       <c r="E11" s="1">
         <v>16.5</v>
       </c>
       <c r="F11" s="1">
-        <f>3.1415*D11*SQRT(D11*D11+E11*E11)</f>
+        <f t="shared" si="3"/>
         <v>549.67571622507023</v>
       </c>
       <c r="G11" s="1"/>
     </row>
     <row r="12" spans="1:7" ht="15" x14ac:dyDescent="0.4">
       <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
+      <c r="B12" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="C12" s="1">
         <v>12.2</v>
       </c>
       <c r="D12" s="1">
-        <f>C12/2</f>
+        <f t="shared" si="2"/>
         <v>6.1</v>
       </c>
       <c r="E12" s="1">
         <v>12.2</v>
       </c>
       <c r="F12" s="1">
-        <f>3.1415*D12*SQRT(D12*D12+E12*E12)</f>
+        <f t="shared" si="3"/>
         <v>261.38564698445305</v>
       </c>
       <c r="G12" s="1"/>
     </row>
     <row r="13" spans="1:7" ht="15" x14ac:dyDescent="0.4">
       <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
+      <c r="B13" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="C13" s="1">
         <v>11.9</v>
       </c>
       <c r="D13" s="1">
-        <f>C13/2</f>
+        <f t="shared" si="2"/>
         <v>5.95</v>
       </c>
       <c r="E13" s="1">
         <v>17.600000000000001</v>
       </c>
       <c r="F13" s="1">
-        <f>3.1415*D13*SQRT(D13*D13+E13*E13)</f>
+        <f t="shared" si="3"/>
         <v>347.2688530961625</v>
       </c>
       <c r="G13" s="1"/>
     </row>
     <row r="14" spans="1:7" ht="15" x14ac:dyDescent="0.4">
       <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
+      <c r="B14" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="C14" s="1">
         <v>12.3</v>
       </c>
       <c r="D14" s="1">
-        <f>C14/2</f>
+        <f t="shared" si="2"/>
         <v>6.15</v>
       </c>
       <c r="E14" s="1">
         <v>16.3</v>
       </c>
       <c r="F14" s="1">
-        <f>3.1415*D14*SQRT(D14*D14+E14*E14)</f>
+        <f t="shared" si="3"/>
         <v>336.58942783908162</v>
       </c>
       <c r="G14" s="1"/>
     </row>
     <row r="15" spans="1:7" ht="15" x14ac:dyDescent="0.4">
       <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
+      <c r="B15" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="C15" s="1">
         <v>14.4</v>
       </c>
       <c r="D15" s="1">
-        <f>C15/2</f>
+        <f t="shared" si="2"/>
         <v>7.2</v>
       </c>
       <c r="E15" s="1">
         <v>17.100000000000001</v>
       </c>
       <c r="F15" s="1">
-        <f>3.1415*D15*SQRT(D15*D15+E15*E15)</f>
+        <f t="shared" si="3"/>
         <v>419.66865686124333</v>
       </c>
       <c r="G15" s="1"/>
     </row>
     <row r="16" spans="1:7" ht="15" x14ac:dyDescent="0.4">
       <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
+      <c r="B16" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="C16" s="1">
         <v>18.3</v>
       </c>
       <c r="D16" s="1">
-        <f>C16/2</f>
+        <f t="shared" si="2"/>
         <v>9.15</v>
       </c>
       <c r="E16" s="1">
         <v>28.6</v>
       </c>
       <c r="F16" s="1">
-        <f>3.1415*D16*SQRT(D16*D16+E16*E16)</f>
+        <f t="shared" si="3"/>
         <v>863.14742363216715</v>
       </c>
       <c r="G16" s="1"/>
     </row>
     <row r="17" spans="1:7" ht="15" x14ac:dyDescent="0.4">
       <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
+      <c r="B17" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="C17" s="1">
         <v>15.5</v>
       </c>
       <c r="D17" s="1">
-        <f>C17/2</f>
+        <f t="shared" si="2"/>
         <v>7.75</v>
       </c>
       <c r="E17" s="1">
         <v>20.5</v>
       </c>
       <c r="F17" s="1">
-        <f>3.1415*D17*SQRT(D17*D17+E17*E17)</f>
+        <f t="shared" si="3"/>
         <v>533.58143557382914</v>
       </c>
       <c r="G17" s="1">
@@ -735,5 +819,6 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>